--- a/dist/assets/coaches.xlsx
+++ b/dist/assets/coaches.xlsx
@@ -88,7 +88,7 @@
     <t>Female</t>
   </si>
   <si>
-    <t>joanna.smith.@gmail.com</t>
+    <t>joanna.smith@gmail.com</t>
   </si>
   <si>
     <t>456-789-0123</t>
